--- a/document/공연리스트_01.xlsx
+++ b/document/공연리스트_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Tiget\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS50517\Documents\workspace\Tiget\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089D85F7-90CD-4778-834E-C889B127180D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79459D6-422F-4384-8A2D-E83370E1D12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="2130" windowWidth="25170" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공연정보" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>공연코드</t>
   </si>
@@ -55,27 +55,6 @@
     <t>concert_code</t>
   </si>
   <si>
-    <t>concert_name</t>
-  </si>
-  <si>
-    <t>concert_artist</t>
-  </si>
-  <si>
-    <t>concert_poster</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>concert_place</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>http://www.playdb.co.kr/playdb/playdbDetail.asp?sReqPlayno=181746</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,63 +113,390 @@
     <t>주요장르</t>
   </si>
   <si>
+    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=42330&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=18920&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=276&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=1042&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=1301&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=27023&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=46182&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=31203&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=34313&amp;part=013001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>artist_code</t>
-  </si>
-  <si>
-    <t>artist_name</t>
-  </si>
-  <si>
-    <t>artist_type</t>
-  </si>
-  <si>
-    <t>artist_img</t>
-  </si>
-  <si>
-    <t>artist_debut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>artist_genre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=42330&amp;part=013001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=18920&amp;part=013001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=276&amp;part=013001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=1042&amp;part=013001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=1301&amp;part=013001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=27023&amp;part=013001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=46182&amp;part=013001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=31203&amp;part=013001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포레스텔라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.09.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크로스오버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤지컬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이지훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1996.11.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박효신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1999.11.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댄스 팝,발라드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명섭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크러쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R&amp;B,힙합,발라드 ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강형호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>록,메탈,클래식,발라드 ...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정택운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해리 스타일스 내한공연</t>
+  </si>
+  <si>
+    <t>해리 스타일스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181746_01.525.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/18/01/0400041801_42330_02.128.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/09/11/0400040911_18920_023.116.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_276_01.j736.gif</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1042_012.jpg</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/07/01/0400040701_1301_012940.gif</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/11/10/0400041110_27023_022.gif</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/20/03/0400042003_46182_02715.gif</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/13/02/0400041302_31203_02247.gif</t>
   </si>
   <si>
     <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=45310&amp;part=013001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.playdb.co.kr/artistdb/detail.asp?ManNo=34313&amp;part=013001</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/19/09/0400041909_45310_02717.gif</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040004/14/03/0400041403_34313_02.925.gif</t>
+  </si>
+  <si>
+    <t>올림픽공원 체조경기장 (KSPO DOME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠딩P 165,000원
+지정석VIP250,000원
+지정석P 198,000원
+지정석R165,000원
+지정석S 143,000원
+지정석A 121,000원
+지정석B 110,000원
+지정석C88,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중 콘서트 - 일산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181174_01.957.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일산 킨텍스(KINTEX) 제1전시장 1홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석154,000원
+R석132,000원
+S석121,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180694_01.630.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성시경 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실실내체육관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성시경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022/12/23 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP석  143,000원
+R석  132,000원
+S석  121,000원
+A석  99,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중 콘서트 - 대전</t>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_182061_01.658.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022/12/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전컨벤션센터 제2전시장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전동석 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전동석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181882_01.301.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데콘서트홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R석140,000원
+S석110,000원
+A석90,000원
+B석70,000원
+C석50,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 THE CRY X-MAS - 수원</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 지코, 사이먼 도미닉, 로꼬, 그레이, 우원재, 기리보이, 키드밀리, 한요한, JUSTHIS, 루피, 쿠기, 다운, 박재범, 더콰이엇, 팔로알토, 염따, ph-1, 릴보이, 비오, 애쉬 아일랜드...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181947_01.716.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원 컨벤션센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양일권149,000원
+일일권110,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비투비 콘서트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비투비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181385_01.055.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠딩132,000원
+지정석132,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/06/0400012206_176433_01.146.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022 Theatre 이문세 - 고양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양아람누리 아람극장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이문세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R석143,000원
+S석110,000원
+2층 발코니석121,000원
+3층 발코니석88,000원
+4층 발코니석77,000원
+붉은노을석77,000원
+3층 붉은노을석77,000원
+붉은노을석(시야장애)77,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/10/0400012210_180027_01.841.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장윤정 콘서트 - 안동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장윤정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안동실내체육관</t>
+  </si>
+  <si>
+    <t>VIP석143,000원
+R석132,000원
+S석110,000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ticketimage.interpark.com/PlayDictionary/DATA/PlayDic/PlayDicUpload/040001/22/11/0400012211_181560_01.835.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르테 디 콰트로 콘서트 - 부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르테 디 콰트로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벡스코 오디토리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R석132,000원
+S석110,000원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,9 +549,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -529,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,6 +851,7 @@
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -569,88 +880,279 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45005</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45005</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44898</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44899</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="165" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44924</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44925</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44919</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44920</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44925</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44927</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="379.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44898</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44905</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="99" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44898</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44898</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44919</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44919</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -666,9 +1168,19 @@
     <hyperlink ref="J15" r:id="rId8" xr:uid="{E33FD6BF-16AD-40B6-9331-2BE1A5ECB2A6}"/>
     <hyperlink ref="J17" r:id="rId9" xr:uid="{942EE192-141C-433A-BCEC-09619E84F3E7}"/>
     <hyperlink ref="J19" r:id="rId10" xr:uid="{CA0C68F5-8AB7-47AB-A309-9DF06D7A5431}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{2E1BE3DE-FADE-499F-8D3A-67F162BE98A0}"/>
+    <hyperlink ref="D3" r:id="rId12" xr:uid="{E1637500-6EFE-4866-9470-2F18D34308EA}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{DD7868AE-60BF-4010-B08E-062A6F58CDF1}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{BC481BFF-B5A9-484F-B012-54C68EBB5B90}"/>
+    <hyperlink ref="D6" r:id="rId15" xr:uid="{0799A355-8A52-493E-9FA3-4048734F01EE}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{00607BAF-96F7-465F-92A6-10A5DDDF46ED}"/>
+    <hyperlink ref="D8" r:id="rId17" xr:uid="{ED639727-5A21-4B47-8E36-766FB8E9235D}"/>
+    <hyperlink ref="D9" r:id="rId18" xr:uid="{C3412EC5-1DF3-490F-84FF-1DDA55954EB3}"/>
+    <hyperlink ref="D10" r:id="rId19" xr:uid="{56B20942-5074-4BE5-B19A-03D0D3BBEB0F}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{9D645A74-EBD5-484F-847A-D1778EDE5261}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -676,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758D875F-E8B4-403F-8998-118B04FDFB02}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,90 +1203,233 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
       <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>2005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>2005</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>2013</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>2012</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <v>2010</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11">
+        <v>2012</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.3">
@@ -793,8 +1448,10 @@
     <hyperlink ref="H15" r:id="rId8" xr:uid="{2E9DD33C-427F-4E50-AA12-79A7B2A6EEA5}"/>
     <hyperlink ref="H17" r:id="rId9" xr:uid="{7326441F-F0A6-4CD5-B139-15071B6220C4}"/>
     <hyperlink ref="H19" r:id="rId10" xr:uid="{EF83F678-5B69-4C71-8039-0F1ACB609DCE}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{6D4CC289-7651-4316-A4B5-B71FF7DB30D3}"/>
+    <hyperlink ref="D3" r:id="rId12" xr:uid="{92DD6151-B867-49A4-A3F7-10CD0851B61E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>